--- a/대략적 일정표.xlsx
+++ b/대략적 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BA297EA-37E4-4516-B5A3-91582495EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A0913E-3C9D-4F4E-8D47-29A2EC2D6488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>해야될 것</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,30 @@
   </si>
   <si>
     <t>변수를 만들땐 꼭 주석을 달아서 설명 적어두기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간평가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,6 +251,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,18 +305,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
@@ -301,6 +322,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,20 +647,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834932C5-91C9-4FF6-8D10-270D04CB1256}">
-  <dimension ref="B3:T30"/>
+  <dimension ref="B3:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>44998</v>
       </c>
       <c r="E3" s="1"/>
@@ -639,7 +670,7 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
@@ -697,7 +728,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>45005</v>
       </c>
       <c r="Q9" t="s">
@@ -705,7 +736,7 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
@@ -749,7 +780,7 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>45012</v>
       </c>
       <c r="N15" t="s">
@@ -757,14 +788,14 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="O16" t="s">
         <v>13</v>
       </c>
@@ -773,9 +804,9 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="O17" t="s">
         <v>14</v>
       </c>
@@ -784,9 +815,9 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="O18" t="s">
         <v>15</v>
       </c>
@@ -795,9 +826,9 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
       <c r="O19" t="s">
         <v>16</v>
       </c>
@@ -814,7 +845,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>45019</v>
       </c>
       <c r="O21" t="s">
@@ -822,7 +853,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
@@ -851,29 +882,95 @@
       <c r="B27" s="1">
         <v>45026</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>45033</v>
+      </c>
+      <c r="C32" s="8">
+        <v>45034</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="1">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/대략적 일정표.xlsx
+++ b/대략적 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A0913E-3C9D-4F4E-8D47-29A2EC2D6488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A069F8-F085-4494-BEDD-D77E84A6064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>해야될 것</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잡몹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스몹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>맵(스테이지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,14 +171,6 @@
   </si>
   <si>
     <t>보스몬스터 구현, 보스방에 배치. 이펙트 구현(여유 될 시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -244,6 +228,66 @@
   </si>
   <si>
     <t>중간평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주형탁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전준호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김은철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황준호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 오브젝트 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">월 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">화 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향키 이동 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중력 미구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +334,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDF856"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -305,7 +367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,14 +386,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -339,6 +413,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDDF856"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -647,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834932C5-91C9-4FF6-8D10-270D04CB1256}">
-  <dimension ref="B3:T63"/>
+  <dimension ref="B3:U71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I5" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -660,322 +739,496 @@
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>44998</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
       <c r="H3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="I4" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="I5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="O18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>45012</v>
+      </c>
+      <c r="N23" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="T23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="O24" t="s">
+        <v>11</v>
+      </c>
+      <c r="T24">
         <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>45005</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
-        <v>45012</v>
-      </c>
-      <c r="N15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="O16" t="s">
-        <v>13</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="O17" t="s">
-        <v>14</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="O18" t="s">
-        <v>15</v>
-      </c>
-      <c r="T18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="O19" t="s">
-        <v>16</v>
-      </c>
-      <c r="T19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="O20" t="s">
-        <v>17</v>
-      </c>
-      <c r="T20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>45019</v>
-      </c>
-      <c r="O21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="O25" t="s">
+        <v>12</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="T26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="O27" t="s">
+        <v>14</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="O28" t="s">
+        <v>15</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>45019</v>
+      </c>
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="O30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
+    <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
         <v>45026</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>45033</v>
+      </c>
+      <c r="C41" s="6">
+        <v>45034</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
-        <v>45033</v>
-      </c>
-      <c r="C32" s="8">
-        <v>45034</v>
-      </c>
-      <c r="D32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="2">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="4">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="2">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
-        <v>44998</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
-        <v>45005</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="4">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="2">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="1">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="1">
         <v>45026</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>8</v>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C16:E19"/>
-    <mergeCell ref="C27:E30"/>
+  <mergeCells count="5">
+    <mergeCell ref="D24:F27"/>
+    <mergeCell ref="D35:F39"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/대략적 일정표.xlsx
+++ b/대략적 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A069F8-F085-4494-BEDD-D77E84A6064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43797B6C-FE04-48DC-9E89-A87058A4E7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>해야될 것</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,10 +240,6 @@
   </si>
   <si>
     <t>전준호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김은철</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -367,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +392,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -406,6 +405,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,7 +731,7 @@
   <dimension ref="B3:U71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -744,24 +746,24 @@
         <v>44998</v>
       </c>
       <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>56</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>58</v>
       </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="10"/>
+      <c r="I3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="11"/>
       <c r="L3" t="s">
         <v>34</v>
       </c>
@@ -779,10 +781,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="I4" s="11">
+      <c r="I4" s="12">
         <v>0.8</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="13"/>
       <c r="M4" t="s">
         <v>35</v>
       </c>
@@ -794,28 +796,19 @@
       <c r="B5" s="3"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="I5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="8"/>
+      <c r="I5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
       <c r="M6" t="s">
         <v>36</v>
       </c>
@@ -854,8 +847,8 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>52</v>
+      <c r="C10" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -868,6 +861,15 @@
       </c>
       <c r="U10" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C11" s="9"/>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
@@ -917,9 +919,6 @@
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
@@ -958,7 +957,7 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -978,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="T23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
@@ -988,11 +987,11 @@
       <c r="C24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
       <c r="O24" t="s">
         <v>11</v>
       </c>
@@ -1001,12 +1000,9 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
       <c r="O25" t="s">
         <v>12</v>
       </c>
@@ -1018,9 +1014,9 @@
       <c r="C26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
       <c r="O26" t="s">
         <v>13</v>
       </c>
@@ -1030,11 +1026,11 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
       <c r="O27" t="s">
         <v>14</v>
       </c>
@@ -1043,6 +1039,7 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="K28" s="8"/>
       <c r="O28" t="s">
         <v>15</v>
       </c>
@@ -1083,9 +1080,6 @@
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>51</v>
-      </c>
       <c r="D31" t="s">
         <v>30</v>
       </c>
@@ -1105,7 +1099,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
         <v>32</v>
@@ -1115,11 +1109,11 @@
       <c r="B35" s="1">
         <v>45026</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
@@ -1128,33 +1122,31 @@
       <c r="C36" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
@@ -1223,7 +1215,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="D24:F27"/>
     <mergeCell ref="D35:F39"/>
     <mergeCell ref="I3:J3"/>

--- a/대략적 일정표.xlsx
+++ b/대략적 일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43797B6C-FE04-48DC-9E89-A87058A4E7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A25E6FD-6B5B-4DE1-BCAC-4EA547E0A39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,9 +405,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834932C5-91C9-4FF6-8D10-270D04CB1256}">
   <dimension ref="B3:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -798,10 +795,10 @@
       <c r="D5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="I5" s="9" t="s">
         <v>61</v>
@@ -1127,7 +1124,6 @@
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="14"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>

--- a/대략적 일정표.xlsx
+++ b/대략적 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A25E6FD-6B5B-4DE1-BCAC-4EA547E0A39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF9BB34-19FC-43E1-B30F-3A5441976B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
   </bookViews>
@@ -38,22 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
-    <t>해야될 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵(스테이지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>남은 기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주형탁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,7 +263,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중력 미구현</t>
+    <t>현재 작업된 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputSystem연결, 점프, 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델이 싹다 날라갔음. 스크립트는 남아있지만 현재 확인을 못했음. 토요일 저녁부터 작업하여 일요일 전에 끝낼 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격모션이 아직 덜 됬다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재까지 구현된것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방황, 플레이어 추적, 스크립트, 모델, 애니메이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,7 +344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDF856"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,6 +410,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834932C5-91C9-4FF6-8D10-270D04CB1256}">
-  <dimension ref="B3:U71"/>
+  <dimension ref="B3:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -738,486 +753,489 @@
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>44998</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="J3" s="11"/>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="12">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="J4" s="13"/>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="I5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H5" s="7"/>
+      <c r="I5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="I6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="M8" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10">
-        <v>3</v>
-      </c>
-      <c r="U10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C11" s="9"/>
+      <c r="I8" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="S8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C11" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C12" s="9"/>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="M12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T12">
-        <v>4</v>
-      </c>
-      <c r="U12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
         <v>45005</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="O18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P18" t="s">
-        <v>8</v>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
+      <c r="O19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
+      <c r="P21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
         <v>45012</v>
       </c>
-      <c r="N23" t="s">
-        <v>10</v>
-      </c>
-      <c r="T23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="O24" t="s">
-        <v>11</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
+      <c r="N24" t="s">
+        <v>6</v>
+      </c>
+      <c r="T24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D25" s="9"/>
+      <c r="B25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="O25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C26" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="O26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T26">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>51</v>
+      <c r="C27" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="O27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="O28" t="s">
+        <v>10</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K28" s="8"/>
-      <c r="O28" t="s">
-        <v>15</v>
-      </c>
-      <c r="T28">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="K29" s="8"/>
+      <c r="O29" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
         <v>45019</v>
       </c>
-      <c r="O29" t="s">
-        <v>16</v>
-      </c>
-      <c r="T29">
+      <c r="O30" t="s">
+        <v>12</v>
+      </c>
+      <c r="T30">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="O31" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31">
         <v>5</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="O30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
         <v>45026</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="5" t="s">
-        <v>50</v>
-      </c>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>51</v>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C39" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="1">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
         <v>45033</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C42" s="6">
         <v>45034</v>
       </c>
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="2">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
-        <v>44998</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="2">
-        <v>45005</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="4">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="2">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="1">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="1">
         <v>45026</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>6</v>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D24:F27"/>
-    <mergeCell ref="D35:F39"/>
+  <mergeCells count="7">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D25:F28"/>
+    <mergeCell ref="D36:F40"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/대략적 일정표.xlsx
+++ b/대략적 일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A069F8-F085-4494-BEDD-D77E84A6064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF9BB34-19FC-43E1-B30F-3A5441976B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,23 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
-  <si>
-    <t>해야될 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵(스테이지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>남은 기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주형탁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김은철</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>황준호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,7 +263,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중력 미구현</t>
+    <t>현재 작업된 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputSystem연결, 점프, 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델이 싹다 날라갔음. 스크립트는 남아있지만 현재 확인을 못했음. 토요일 저녁부터 작업하여 일요일 전에 끝낼 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격모션이 아직 덜 됬다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재까지 구현된것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방황, 플레이어 추적, 스크립트, 모델, 애니메이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,7 +344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDF856"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +398,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -405,6 +410,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834932C5-91C9-4FF6-8D10-270D04CB1256}">
-  <dimension ref="B3:U71"/>
+  <dimension ref="B3:T72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -739,496 +753,489 @@
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>44998</v>
       </c>
       <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J3" s="11"/>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="I4" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H4" s="7"/>
+      <c r="I4" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="I5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H5" s="7"/>
+      <c r="I5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="I6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="M8" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10">
-        <v>3</v>
-      </c>
-      <c r="U10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="M12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T12">
-        <v>4</v>
-      </c>
-      <c r="U12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
+      <c r="I8" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="S8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C12" s="9"/>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
         <v>45005</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="O18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P18" t="s">
-        <v>8</v>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
+      <c r="O19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>45012</v>
+      </c>
+      <c r="N24" t="s">
+        <v>6</v>
+      </c>
+      <c r="T24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="O25" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="O26" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="O27" t="s">
+        <v>9</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="O28" t="s">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="K29" s="8"/>
+      <c r="O29" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <v>45019</v>
+      </c>
+      <c r="O30" t="s">
+        <v>12</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="O31" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
         <v>28</v>
       </c>
-      <c r="O20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
+    </row>
+    <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>45026</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>45033</v>
+      </c>
+      <c r="C42" s="6">
+        <v>45034</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="2">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
         <v>45012</v>
       </c>
-      <c r="N23" t="s">
-        <v>10</v>
-      </c>
-      <c r="T23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="O24" t="s">
-        <v>11</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="O25" t="s">
-        <v>12</v>
-      </c>
-      <c r="T25">
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="1">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="O26" t="s">
-        <v>13</v>
-      </c>
-      <c r="T26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="O27" t="s">
-        <v>14</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="O28" t="s">
-        <v>15</v>
-      </c>
-      <c r="T28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
-        <v>45019</v>
-      </c>
-      <c r="O29" t="s">
-        <v>16</v>
-      </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="O30" t="s">
-        <v>17</v>
-      </c>
-      <c r="T30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
-        <v>45026</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="1">
-        <v>45033</v>
-      </c>
-      <c r="C41" s="6">
-        <v>45034</v>
-      </c>
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
-        <v>44998</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="2">
-        <v>45005</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="4">
-        <v>45012</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="2">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="1">
-        <v>45026</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D24:F27"/>
-    <mergeCell ref="D35:F39"/>
+  <mergeCells count="7">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D25:F28"/>
+    <mergeCell ref="D36:F40"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/대략적 일정표.xlsx
+++ b/대략적 일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF9BB34-19FC-43E1-B30F-3A5441976B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A108CC-2228-425D-AA7B-B9403B3CA48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>남은 기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,18 +119,6 @@
   </si>
   <si>
     <t>플레이어 근접 공격 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터와의 상호작용 구현(피격처리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스방1개, 잡몹방2개, 퍼즐(함정)방 2개 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접 몬스터 3종류, 원거리 몬스터 1개 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작업 양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 작업된 것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,6 +268,34 @@
   </si>
   <si>
     <t>방황, 플레이어 추적, 스크립트, 모델, 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터와의 상호작용 구현(타격처리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 몬스터 1종류, 원거리 몬스터 1개 구현, 플레이어와의 상호작용(타격처리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 작업 예상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주중 작업 양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔여 작업 량 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 걷기, 대기자세 애니메이션 구현 성공, 플레이어 A,D 입력에 따라 에니메이션 변경까지 수정 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스방1개, 잡몹방2개, (여유 될 시)퍼즐(함정)방 1개 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,28 +409,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,7 +752,7 @@
   <dimension ref="B3:T72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -758,26 +767,30 @@
         <v>44998</v>
       </c>
       <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="11"/>
+      <c r="I3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="9"/>
       <c r="R3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
@@ -785,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>14</v>
@@ -794,46 +807,52 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="12">
+      <c r="I4" s="14">
         <v>0.3</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11"/>
       <c r="S4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="15"/>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="I6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="9"/>
+      <c r="I6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="12"/>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="S6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>16</v>
@@ -841,50 +860,40 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="I8" s="16">
+      <c r="I8" s="10">
         <v>0.8</v>
       </c>
-      <c r="J8" s="16"/>
+      <c r="J8" s="10"/>
       <c r="S8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="9" t="s">
-        <v>46</v>
+      <c r="C11" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="S11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="9"/>
+      <c r="C12" s="12"/>
       <c r="D12" t="s">
         <v>15</v>
       </c>
@@ -894,7 +903,7 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="S13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
@@ -907,7 +916,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>20</v>
@@ -915,7 +924,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -924,7 +933,9 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -933,9 +944,6 @@
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="O17" t="s">
         <v>0</v>
       </c>
@@ -945,10 +953,10 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -971,10 +979,10 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O21" t="s">
         <v>5</v>
@@ -991,21 +999,24 @@
         <v>6</v>
       </c>
       <c r="T24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
       <c r="O25" t="s">
         <v>7</v>
       </c>
@@ -1014,9 +1025,9 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="O26" t="s">
         <v>8</v>
       </c>
@@ -1026,11 +1037,11 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
       <c r="O27" t="s">
         <v>9</v>
       </c>
@@ -1040,11 +1051,11 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
       <c r="O28" t="s">
         <v>10</v>
       </c>
@@ -1077,10 +1088,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -1095,15 +1106,15 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C33" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1113,53 +1124,53 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>45026</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="D36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C39" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
@@ -1169,12 +1180,12 @@
         <v>45034</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
@@ -1184,7 +1195,7 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
@@ -1194,7 +1205,7 @@
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
@@ -1204,7 +1215,7 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -1214,7 +1225,7 @@
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
@@ -1228,7 +1239,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D25:F28"/>
     <mergeCell ref="D36:F40"/>

--- a/대략적 일정표.xlsx
+++ b/대략적 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A108CC-2228-425D-AA7B-B9403B3CA48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91A4F40-7B2C-4625-9802-1D20080B41A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>남은 기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,10 @@
   </si>
   <si>
     <t>보스방1개, 잡몹방2개, (여유 될 시)퍼즐(함정)방 1개 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 충돌처리, 이미지 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -428,6 +432,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -752,7 +759,7 @@
   <dimension ref="B3:T72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -888,6 +895,10 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
+      <c r="I11" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="J11" s="12"/>
       <c r="S11" t="s">
         <v>33</v>
       </c>
@@ -899,6 +910,9 @@
       </c>
       <c r="F12" t="s">
         <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
@@ -1239,7 +1253,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="C11:C12"/>
@@ -1249,6 +1263,7 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/대략적 일정표.xlsx
+++ b/대략적 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91A4F40-7B2C-4625-9802-1D20080B41A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06E750B-E3BA-4B3A-B21F-7A642071F47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>남은 기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,34 @@
   </si>
   <si>
     <t>아이템 충돌처리, 이미지 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함정 오브젝트 4개(가시 발판, 밟으면 불이 올라오는 발판 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 스테이터스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +398,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -385,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,6 +446,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834932C5-91C9-4FF6-8D10-270D04CB1256}">
   <dimension ref="B3:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -788,14 +828,14 @@
       <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="11"/>
       <c r="R3" t="s">
         <v>27</v>
       </c>
@@ -814,14 +854,14 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="14">
+      <c r="I4" s="16">
         <v>0.3</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="10">
+      <c r="J4" s="17"/>
+      <c r="K4" s="12">
         <v>1</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="13"/>
       <c r="S4" t="s">
         <v>28</v>
       </c>
@@ -846,10 +886,10 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="14"/>
       <c r="K6" t="s">
         <v>53</v>
       </c>
@@ -867,10 +907,10 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="I8" s="10">
+      <c r="I8" s="12">
         <v>0.8</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="12"/>
       <c r="S8" t="s">
         <v>32</v>
       </c>
@@ -889,22 +929,22 @@
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="18">
         <v>0.6</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="14"/>
       <c r="S11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="12"/>
+      <c r="C12" s="14"/>
       <c r="D12" t="s">
         <v>15</v>
       </c>
@@ -1023,11 +1063,11 @@
       <c r="C25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" t="s">
         <v>60</v>
       </c>
@@ -1039,9 +1079,9 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="O26" t="s">
         <v>8</v>
       </c>
@@ -1053,9 +1093,9 @@
       <c r="C27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
       <c r="O27" t="s">
         <v>9</v>
       </c>
@@ -1067,9 +1107,12 @@
       <c r="C28" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
       <c r="O28" t="s">
         <v>10</v>
       </c>
@@ -1123,7 +1166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C33" s="5" t="s">
         <v>42</v>
       </c>
@@ -1136,57 +1179,82 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>43</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N34" t="s">
+        <v>70</v>
+      </c>
+      <c r="O34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>45026</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="N36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C39" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="M40" t="s">
+        <v>71</v>
+      </c>
+      <c r="N40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>45033</v>
       </c>
@@ -1197,17 +1265,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+    </row>
+    <row r="45" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>44998</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>36</v>
       </c>
@@ -1232,7 +1311,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>45019</v>
       </c>

--- a/대략적 일정표.xlsx
+++ b/대략적 일정표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\AtentsTeamCProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junho\Documents\GitHub\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06E750B-E3BA-4B3A-B21F-7A642071F47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D80E33-E532-44F3-B2C2-75861AC284E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>남은 기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,14 @@
   </si>
   <si>
     <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위자드 애니메이션 제작 &amp; 몬스터 베이스 통합 중,  원거리 코드 작업x 주말에 완료 목적으로 할 예정 (일요일 오후6시까지는 최신화 할 예정) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기본적으로 몬스터가 가져야할 코드 구현 완료 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +363,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +412,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -419,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,6 +489,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834932C5-91C9-4FF6-8D10-270D04CB1256}">
   <dimension ref="B3:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -911,6 +928,10 @@
         <v>0.8</v>
       </c>
       <c r="J8" s="12"/>
+      <c r="K8" s="12">
+        <v>1</v>
+      </c>
+      <c r="L8" s="12"/>
       <c r="S8" t="s">
         <v>32</v>
       </c>
@@ -918,6 +939,9 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
         <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
@@ -1025,10 +1049,14 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="D20" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
@@ -1332,7 +1360,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="C11:C12"/>
@@ -1343,6 +1371,8 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="K8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/대략적 일정표.xlsx
+++ b/대략적 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06E750B-E3BA-4B3A-B21F-7A642071F47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862A0D66-E22E-48B3-8DDF-431C74E9D3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>남은 기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,10 @@
   </si>
   <si>
     <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 공격 구현 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834932C5-91C9-4FF6-8D10-270D04CB1256}">
   <dimension ref="B3:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -998,6 +1002,9 @@
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
       <c r="O17" t="s">
         <v>0</v>
       </c>

--- a/대략적 일정표.xlsx
+++ b/대략적 일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atents\TeamProject\AtentsTeamCProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862A0D66-E22E-48B3-8DDF-431C74E9D3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5C8299-D5E9-4C87-847D-994A519EC492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{888EC23E-A11C-4440-88AE-9C5AE6B4DAA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>남은 기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,9 @@
   <si>
     <t>근접 공격 구현 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위자드 애니메이션 제작 &amp; 몬스터 베이스 통합 중,  원거리 코드 작업x 주말에 완료 목적으로 할 예정 (일요일 오후6시까지는 최신화 할 예정) </t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,6 +483,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,7 +809,7 @@
   <dimension ref="B3:T72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1032,8 +1038,12 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
